--- a/sourceData/源数据/源数据2.xlsx
+++ b/sourceData/源数据/源数据2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>订单编号</t>
   </si>
@@ -64,181 +64,82 @@
     <t>利润</t>
   </si>
   <si>
-    <t>w1232424</t>
-  </si>
-  <si>
-    <t>黄琦</t>
-  </si>
-  <si>
-    <t>受打击啊后的卡刷道具卡是</t>
+    <t>w1236</t>
+  </si>
+  <si>
+    <t>黄琦1</t>
+  </si>
+  <si>
+    <t>杭州西湖22号</t>
   </si>
   <si>
     <t>是</t>
   </si>
   <si>
-    <t>意静</t>
-  </si>
-  <si>
-    <t>etst</t>
+    <t>运送中1</t>
+  </si>
+  <si>
+    <t>pdd1</t>
   </si>
   <si>
     <t>商品1</t>
   </si>
   <si>
-    <t>w1232425</t>
+    <t>w1237</t>
+  </si>
+  <si>
+    <t>黄琦2</t>
+  </si>
+  <si>
+    <t>杭州西湖23号</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>运送中2</t>
+  </si>
+  <si>
+    <t>pdd2</t>
   </si>
   <si>
     <t>商品2</t>
   </si>
   <si>
-    <t>w1232426</t>
+    <t>w1238</t>
+  </si>
+  <si>
+    <t>黄琦3</t>
+  </si>
+  <si>
+    <t>杭州西湖24号</t>
+  </si>
+  <si>
+    <t>运送中3</t>
+  </si>
+  <si>
+    <t>pdd3</t>
   </si>
   <si>
     <t>商品3</t>
   </si>
   <si>
-    <t>w1232427</t>
+    <t>w1239</t>
+  </si>
+  <si>
+    <t>黄琦4</t>
+  </si>
+  <si>
+    <t>杭州西湖25号</t>
+  </si>
+  <si>
+    <t>运送中4</t>
+  </si>
+  <si>
+    <t>pdd4</t>
   </si>
   <si>
     <t>商品4</t>
-  </si>
-  <si>
-    <t>w1232428</t>
-  </si>
-  <si>
-    <t>商品5</t>
-  </si>
-  <si>
-    <t>w1232429</t>
-  </si>
-  <si>
-    <t>商品6</t>
-  </si>
-  <si>
-    <t>w1232430</t>
-  </si>
-  <si>
-    <t>商品7</t>
-  </si>
-  <si>
-    <t>w1232431</t>
-  </si>
-  <si>
-    <t>商品8</t>
-  </si>
-  <si>
-    <t>w1232432</t>
-  </si>
-  <si>
-    <t>商品9</t>
-  </si>
-  <si>
-    <t>w1232433</t>
-  </si>
-  <si>
-    <t>商品10</t>
-  </si>
-  <si>
-    <t>w1232434</t>
-  </si>
-  <si>
-    <t>商品11</t>
-  </si>
-  <si>
-    <t>w1232435</t>
-  </si>
-  <si>
-    <t>商品12</t>
-  </si>
-  <si>
-    <t>w1232436</t>
-  </si>
-  <si>
-    <t>商品13</t>
-  </si>
-  <si>
-    <t>w1232437</t>
-  </si>
-  <si>
-    <t>商品14</t>
-  </si>
-  <si>
-    <t>w1232438</t>
-  </si>
-  <si>
-    <t>商品15</t>
-  </si>
-  <si>
-    <t>w1232439</t>
-  </si>
-  <si>
-    <t>商品16</t>
-  </si>
-  <si>
-    <t>w1232440</t>
-  </si>
-  <si>
-    <t>商品17</t>
-  </si>
-  <si>
-    <t>w1232441</t>
-  </si>
-  <si>
-    <t>商品18</t>
-  </si>
-  <si>
-    <t>w1232442</t>
-  </si>
-  <si>
-    <t>商品19</t>
-  </si>
-  <si>
-    <t>w1232443</t>
-  </si>
-  <si>
-    <t>商品20</t>
-  </si>
-  <si>
-    <t>w1232444</t>
-  </si>
-  <si>
-    <t>商品21</t>
-  </si>
-  <si>
-    <t>w1232445</t>
-  </si>
-  <si>
-    <t>商品22</t>
-  </si>
-  <si>
-    <t>w1232446</t>
-  </si>
-  <si>
-    <t>商品23</t>
-  </si>
-  <si>
-    <t>w1232447</t>
-  </si>
-  <si>
-    <t>商品24</t>
-  </si>
-  <si>
-    <t>w1232448</t>
-  </si>
-  <si>
-    <t>商品25</t>
-  </si>
-  <si>
-    <t>w1232449</t>
-  </si>
-  <si>
-    <t>商品26</t>
-  </si>
-  <si>
-    <t>w1232450</t>
-  </si>
-  <si>
-    <t>商品27</t>
   </si>
 </sst>
 </file>
@@ -615,16 +516,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -881,10 +782,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1205,15 +1106,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P28"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <cols>
-    <col min="14" max="14" width="17.8888888888889" customWidth="1"/>
+    <col min="1" max="1" width="12.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="16.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="22.2222222222222" customWidth="1"/>
+    <col min="14" max="14" width="13.8888888888889" customWidth="1"/>
+    <col min="15" max="15" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1247,26 +1152,26 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -1297,919 +1202,134 @@
       <c r="J2" s="2">
         <v>1</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="1">
         <v>2</v>
       </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
+    <row r="3" spans="1:16">
+      <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1">
         <v>13892482373</v>
       </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="1">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2</v>
+      </c>
+      <c r="K3" s="1">
+        <v>3</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="1">
+        <v>13892482374</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3">
+      <c r="F4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="1">
+        <v>4</v>
+      </c>
+      <c r="J4" s="1">
         <v>3</v>
       </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
-      <c r="K3">
-        <v>3</v>
-      </c>
+      <c r="K4" s="1">
+        <v>4</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4">
-        <v>13892482374</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" t="s">
+    <row r="5" spans="1:16">
+      <c r="A5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="1">
+        <v>13892482375</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I4">
+      <c r="F5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="1">
+        <v>5</v>
+      </c>
+      <c r="J5" s="1">
         <v>4</v>
       </c>
-      <c r="J4">
-        <v>3</v>
-      </c>
-      <c r="K4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5">
-        <v>13892482375</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5">
+      <c r="K5" s="1">
         <v>5</v>
       </c>
-      <c r="J5">
-        <v>4</v>
-      </c>
-      <c r="K5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6">
-        <v>13892482376</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6">
-        <v>6</v>
-      </c>
-      <c r="J6">
-        <v>5</v>
-      </c>
-      <c r="K6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7">
-        <v>13892482377</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7">
-        <v>7</v>
-      </c>
-      <c r="J7">
-        <v>6</v>
-      </c>
-      <c r="K7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8">
-        <v>13892482378</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8">
-        <v>8</v>
-      </c>
-      <c r="J8">
-        <v>7</v>
-      </c>
-      <c r="K8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9">
-        <v>13892482379</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9">
-        <v>9</v>
-      </c>
-      <c r="J9">
-        <v>8</v>
-      </c>
-      <c r="K9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10">
-        <v>13892482380</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10">
-        <v>10</v>
-      </c>
-      <c r="J10">
-        <v>9</v>
-      </c>
-      <c r="K10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11">
-        <v>13892482381</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11">
-        <v>11</v>
-      </c>
-      <c r="J11">
-        <v>10</v>
-      </c>
-      <c r="K11">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12">
-        <v>13892482382</v>
-      </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12">
-        <v>12</v>
-      </c>
-      <c r="J12">
-        <v>11</v>
-      </c>
-      <c r="K12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13">
-        <v>13892482383</v>
-      </c>
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" t="s">
-        <v>44</v>
-      </c>
-      <c r="I13">
-        <v>13</v>
-      </c>
-      <c r="J13">
-        <v>12</v>
-      </c>
-      <c r="K13">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14">
-        <v>13892482384</v>
-      </c>
-      <c r="D14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14">
-        <v>14</v>
-      </c>
-      <c r="J14">
-        <v>13</v>
-      </c>
-      <c r="K14">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15">
-        <v>13892482385</v>
-      </c>
-      <c r="D15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" t="s">
-        <v>48</v>
-      </c>
-      <c r="I15">
-        <v>15</v>
-      </c>
-      <c r="J15">
-        <v>14</v>
-      </c>
-      <c r="K15">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16">
-        <v>13892482386</v>
-      </c>
-      <c r="D16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" t="s">
-        <v>50</v>
-      </c>
-      <c r="I16">
-        <v>16</v>
-      </c>
-      <c r="J16">
-        <v>15</v>
-      </c>
-      <c r="K16">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17">
-        <v>13892482387</v>
-      </c>
-      <c r="D17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" t="s">
-        <v>52</v>
-      </c>
-      <c r="I17">
-        <v>17</v>
-      </c>
-      <c r="J17">
-        <v>16</v>
-      </c>
-      <c r="K17">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18">
-        <v>13892482388</v>
-      </c>
-      <c r="D18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" t="s">
-        <v>54</v>
-      </c>
-      <c r="I18">
-        <v>18</v>
-      </c>
-      <c r="J18">
-        <v>17</v>
-      </c>
-      <c r="K18">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19">
-        <v>13892482389</v>
-      </c>
-      <c r="D19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" t="s">
-        <v>56</v>
-      </c>
-      <c r="I19">
-        <v>19</v>
-      </c>
-      <c r="J19">
-        <v>18</v>
-      </c>
-      <c r="K19">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20">
-        <v>13892482390</v>
-      </c>
-      <c r="D20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" t="s">
-        <v>58</v>
-      </c>
-      <c r="I20">
-        <v>20</v>
-      </c>
-      <c r="J20">
-        <v>19</v>
-      </c>
-      <c r="K20">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21">
-        <v>13892482391</v>
-      </c>
-      <c r="D21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" t="s">
-        <v>60</v>
-      </c>
-      <c r="I21">
-        <v>21</v>
-      </c>
-      <c r="J21">
-        <v>20</v>
-      </c>
-      <c r="K21">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22">
-        <v>13892482392</v>
-      </c>
-      <c r="D22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" t="s">
-        <v>62</v>
-      </c>
-      <c r="I22">
-        <v>22</v>
-      </c>
-      <c r="J22">
-        <v>21</v>
-      </c>
-      <c r="K22">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23">
-        <v>13892482393</v>
-      </c>
-      <c r="D23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" t="s">
-        <v>64</v>
-      </c>
-      <c r="I23">
-        <v>23</v>
-      </c>
-      <c r="J23">
-        <v>22</v>
-      </c>
-      <c r="K23">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24">
-        <v>13892482394</v>
-      </c>
-      <c r="D24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24" t="s">
-        <v>66</v>
-      </c>
-      <c r="I24">
-        <v>24</v>
-      </c>
-      <c r="J24">
-        <v>23</v>
-      </c>
-      <c r="K24">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25">
-        <v>13892482395</v>
-      </c>
-      <c r="D25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" t="s">
-        <v>68</v>
-      </c>
-      <c r="I25">
-        <v>25</v>
-      </c>
-      <c r="J25">
-        <v>24</v>
-      </c>
-      <c r="K25">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26">
-        <v>13892482396</v>
-      </c>
-      <c r="D26" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" t="s">
-        <v>70</v>
-      </c>
-      <c r="I26">
-        <v>26</v>
-      </c>
-      <c r="J26">
-        <v>25</v>
-      </c>
-      <c r="K26">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27">
-        <v>13892482397</v>
-      </c>
-      <c r="D27" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" t="s">
-        <v>72</v>
-      </c>
-      <c r="I27">
-        <v>27</v>
-      </c>
-      <c r="J27">
-        <v>26</v>
-      </c>
-      <c r="K27">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28">
-        <v>13892482398</v>
-      </c>
-      <c r="D28" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" t="s">
-        <v>21</v>
-      </c>
-      <c r="H28" t="s">
-        <v>74</v>
-      </c>
-      <c r="I28">
-        <v>28</v>
-      </c>
-      <c r="J28">
-        <v>27</v>
-      </c>
-      <c r="K28">
-        <v>28</v>
-      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sourceData/源数据/源数据2.xlsx
+++ b/sourceData/源数据/源数据2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="137">
   <si>
     <t>订单编号</t>
   </si>
@@ -64,7 +64,7 @@
     <t>利润</t>
   </si>
   <si>
-    <t>w1236</t>
+    <t>w1252</t>
   </si>
   <si>
     <t>黄琦1</t>
@@ -85,7 +85,7 @@
     <t>商品1</t>
   </si>
   <si>
-    <t>w1237</t>
+    <t>w1253</t>
   </si>
   <si>
     <t>黄琦2</t>
@@ -94,9 +94,6 @@
     <t>杭州西湖23号</t>
   </si>
   <si>
-    <t>否</t>
-  </si>
-  <si>
     <t>运送中2</t>
   </si>
   <si>
@@ -106,7 +103,7 @@
     <t>商品2</t>
   </si>
   <si>
-    <t>w1238</t>
+    <t>w1254</t>
   </si>
   <si>
     <t>黄琦3</t>
@@ -124,7 +121,7 @@
     <t>商品3</t>
   </si>
   <si>
-    <t>w1239</t>
+    <t>w1255</t>
   </si>
   <si>
     <t>黄琦4</t>
@@ -140,6 +137,294 @@
   </si>
   <si>
     <t>商品4</t>
+  </si>
+  <si>
+    <t>w1256</t>
+  </si>
+  <si>
+    <t>黄琦5</t>
+  </si>
+  <si>
+    <t>杭州西湖26号</t>
+  </si>
+  <si>
+    <t>运送中5</t>
+  </si>
+  <si>
+    <t>pdd5</t>
+  </si>
+  <si>
+    <t>商品5</t>
+  </si>
+  <si>
+    <t>w1257</t>
+  </si>
+  <si>
+    <t>黄琦6</t>
+  </si>
+  <si>
+    <t>杭州西湖27号</t>
+  </si>
+  <si>
+    <t>运送中6</t>
+  </si>
+  <si>
+    <t>pdd6</t>
+  </si>
+  <si>
+    <t>商品6</t>
+  </si>
+  <si>
+    <t>w1258</t>
+  </si>
+  <si>
+    <t>黄琦7</t>
+  </si>
+  <si>
+    <t>杭州西湖28号</t>
+  </si>
+  <si>
+    <t>运送中7</t>
+  </si>
+  <si>
+    <t>pdd7</t>
+  </si>
+  <si>
+    <t>商品7</t>
+  </si>
+  <si>
+    <t>w1259</t>
+  </si>
+  <si>
+    <t>黄琦8</t>
+  </si>
+  <si>
+    <t>杭州西湖29号</t>
+  </si>
+  <si>
+    <t>运送中8</t>
+  </si>
+  <si>
+    <t>pdd8</t>
+  </si>
+  <si>
+    <t>商品8</t>
+  </si>
+  <si>
+    <t>w1260</t>
+  </si>
+  <si>
+    <t>黄琦9</t>
+  </si>
+  <si>
+    <t>杭州西湖30号</t>
+  </si>
+  <si>
+    <t>运送中9</t>
+  </si>
+  <si>
+    <t>pdd9</t>
+  </si>
+  <si>
+    <t>商品9</t>
+  </si>
+  <si>
+    <t>w1261</t>
+  </si>
+  <si>
+    <t>黄琦10</t>
+  </si>
+  <si>
+    <t>杭州西湖31号</t>
+  </si>
+  <si>
+    <t>运送中10</t>
+  </si>
+  <si>
+    <t>pdd10</t>
+  </si>
+  <si>
+    <t>商品10</t>
+  </si>
+  <si>
+    <t>w1262</t>
+  </si>
+  <si>
+    <t>黄琦11</t>
+  </si>
+  <si>
+    <t>杭州西湖32号</t>
+  </si>
+  <si>
+    <t>运送中11</t>
+  </si>
+  <si>
+    <t>pdd11</t>
+  </si>
+  <si>
+    <t>商品11</t>
+  </si>
+  <si>
+    <t>w1263</t>
+  </si>
+  <si>
+    <t>黄琦12</t>
+  </si>
+  <si>
+    <t>杭州西湖33号</t>
+  </si>
+  <si>
+    <t>运送中12</t>
+  </si>
+  <si>
+    <t>pdd12</t>
+  </si>
+  <si>
+    <t>商品12</t>
+  </si>
+  <si>
+    <t>w1264</t>
+  </si>
+  <si>
+    <t>黄琦13</t>
+  </si>
+  <si>
+    <t>杭州西湖34号</t>
+  </si>
+  <si>
+    <t>运送中13</t>
+  </si>
+  <si>
+    <t>pdd13</t>
+  </si>
+  <si>
+    <t>商品13</t>
+  </si>
+  <si>
+    <t>w1265</t>
+  </si>
+  <si>
+    <t>黄琦14</t>
+  </si>
+  <si>
+    <t>杭州西湖35号</t>
+  </si>
+  <si>
+    <t>运送中14</t>
+  </si>
+  <si>
+    <t>pdd14</t>
+  </si>
+  <si>
+    <t>商品14</t>
+  </si>
+  <si>
+    <t>w1266</t>
+  </si>
+  <si>
+    <t>黄琦15</t>
+  </si>
+  <si>
+    <t>杭州西湖36号</t>
+  </si>
+  <si>
+    <t>运送中15</t>
+  </si>
+  <si>
+    <t>pdd15</t>
+  </si>
+  <si>
+    <t>商品15</t>
+  </si>
+  <si>
+    <t>w1267</t>
+  </si>
+  <si>
+    <t>黄琦16</t>
+  </si>
+  <si>
+    <t>杭州西湖37号</t>
+  </si>
+  <si>
+    <t>运送中16</t>
+  </si>
+  <si>
+    <t>pdd16</t>
+  </si>
+  <si>
+    <t>商品16</t>
+  </si>
+  <si>
+    <t>w1268</t>
+  </si>
+  <si>
+    <t>黄琦17</t>
+  </si>
+  <si>
+    <t>杭州西湖38号</t>
+  </si>
+  <si>
+    <t>运送中17</t>
+  </si>
+  <si>
+    <t>pdd17</t>
+  </si>
+  <si>
+    <t>商品17</t>
+  </si>
+  <si>
+    <t>w1269</t>
+  </si>
+  <si>
+    <t>黄琦18</t>
+  </si>
+  <si>
+    <t>杭州西湖39号</t>
+  </si>
+  <si>
+    <t>运送中18</t>
+  </si>
+  <si>
+    <t>pdd18</t>
+  </si>
+  <si>
+    <t>商品18</t>
+  </si>
+  <si>
+    <t>w1270</t>
+  </si>
+  <si>
+    <t>黄琦19</t>
+  </si>
+  <si>
+    <t>杭州西湖40号</t>
+  </si>
+  <si>
+    <t>运送中19</t>
+  </si>
+  <si>
+    <t>pdd19</t>
+  </si>
+  <si>
+    <t>商品19</t>
+  </si>
+  <si>
+    <t>w1271</t>
+  </si>
+  <si>
+    <t>黄琦20</t>
+  </si>
+  <si>
+    <t>杭州西湖41号</t>
+  </si>
+  <si>
+    <t>运送中20</t>
+  </si>
+  <si>
+    <t>pdd20</t>
+  </si>
+  <si>
+    <t>商品20</t>
   </si>
 </sst>
 </file>
@@ -1106,13 +1391,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+      <selection activeCell="A2" sqref="A2:P21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="12.3333333333333" customWidth="1"/>
     <col min="3" max="3" width="16.8888888888889" customWidth="1"/>
@@ -1224,22 +1509,22 @@
       <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="1">
+      <c r="I3" s="2">
         <v>3</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="2">
         <v>2</v>
       </c>
       <c r="K3" s="1">
@@ -1253,33 +1538,33 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="C4" s="1">
         <v>13892482374</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="1">
+      <c r="I4" s="2">
         <v>4</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="2">
         <v>3</v>
       </c>
       <c r="K4" s="1">
@@ -1293,33 +1578,33 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="C5" s="1">
         <v>13892482375</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" s="1">
+      <c r="I5" s="2">
         <v>5</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="2">
         <v>4</v>
       </c>
       <c r="K5" s="1">
@@ -1331,6 +1616,646 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="1">
+        <v>13892482376</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="2">
+        <v>6</v>
+      </c>
+      <c r="J6" s="2">
+        <v>5</v>
+      </c>
+      <c r="K6" s="1">
+        <v>6</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="1">
+        <v>13892482377</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="2">
+        <v>7</v>
+      </c>
+      <c r="J7" s="2">
+        <v>6</v>
+      </c>
+      <c r="K7" s="1">
+        <v>7</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="1">
+        <v>13892482378</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="2">
+        <v>8</v>
+      </c>
+      <c r="J8" s="2">
+        <v>7</v>
+      </c>
+      <c r="K8" s="1">
+        <v>8</v>
+      </c>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="1">
+        <v>13892482379</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="2">
+        <v>9</v>
+      </c>
+      <c r="J9" s="2">
+        <v>8</v>
+      </c>
+      <c r="K9" s="1">
+        <v>9</v>
+      </c>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="1">
+        <v>13892482380</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" s="2">
+        <v>10</v>
+      </c>
+      <c r="J10" s="2">
+        <v>9</v>
+      </c>
+      <c r="K10" s="1">
+        <v>10</v>
+      </c>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="1">
+        <v>13892482381</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11" s="2">
+        <v>11</v>
+      </c>
+      <c r="J11" s="2">
+        <v>10</v>
+      </c>
+      <c r="K11" s="1">
+        <v>11</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="1">
+        <v>13892482382</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" s="2">
+        <v>12</v>
+      </c>
+      <c r="J12" s="2">
+        <v>11</v>
+      </c>
+      <c r="K12" s="1">
+        <v>12</v>
+      </c>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="1">
+        <v>13892482383</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I13" s="2">
+        <v>13</v>
+      </c>
+      <c r="J13" s="2">
+        <v>12</v>
+      </c>
+      <c r="K13" s="1">
+        <v>13</v>
+      </c>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="1">
+        <v>13892482384</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I14" s="2">
+        <v>14</v>
+      </c>
+      <c r="J14" s="2">
+        <v>13</v>
+      </c>
+      <c r="K14" s="1">
+        <v>14</v>
+      </c>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="1">
+        <v>13892482385</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I15" s="2">
+        <v>15</v>
+      </c>
+      <c r="J15" s="2">
+        <v>14</v>
+      </c>
+      <c r="K15" s="1">
+        <v>15</v>
+      </c>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="1">
+        <v>13892482386</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I16" s="2">
+        <v>16</v>
+      </c>
+      <c r="J16" s="2">
+        <v>15</v>
+      </c>
+      <c r="K16" s="1">
+        <v>16</v>
+      </c>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="1">
+        <v>13892482387</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I17" s="2">
+        <v>17</v>
+      </c>
+      <c r="J17" s="2">
+        <v>16</v>
+      </c>
+      <c r="K17" s="1">
+        <v>17</v>
+      </c>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="1">
+        <v>13892482388</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I18" s="2">
+        <v>18</v>
+      </c>
+      <c r="J18" s="2">
+        <v>17</v>
+      </c>
+      <c r="K18" s="1">
+        <v>18</v>
+      </c>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="1">
+        <v>13892482389</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I19" s="2">
+        <v>19</v>
+      </c>
+      <c r="J19" s="2">
+        <v>18</v>
+      </c>
+      <c r="K19" s="1">
+        <v>19</v>
+      </c>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="1">
+        <v>13892482390</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I20" s="2">
+        <v>20</v>
+      </c>
+      <c r="J20" s="2">
+        <v>19</v>
+      </c>
+      <c r="K20" s="1">
+        <v>20</v>
+      </c>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21" s="1">
+        <v>13892482391</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I21" s="2">
+        <v>21</v>
+      </c>
+      <c r="J21" s="2">
+        <v>20</v>
+      </c>
+      <c r="K21" s="1">
+        <v>21</v>
+      </c>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
